--- a/Data/data5.xlsx
+++ b/Data/data5.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEFB8E62-F14C-4EFE-B229-3BF1CCA4FCFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="29685" yWindow="255" windowWidth="11895" windowHeight="15210" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="first" sheetId="1" r:id="rId1"/>
+    <sheet name="second" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
   <si>
     <t>age</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,7 +53,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -108,9 +110,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -148,9 +150,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -185,7 +187,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -220,7 +222,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -393,11 +395,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -473,4 +475,75 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6D2E47A-91F5-41E1-8014-452AB4B6658E}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>3500</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Data/data5.xlsx
+++ b/Data/data5.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEFB8E62-F14C-4EFE-B229-3BF1CCA4FCFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCCE185D-B63C-47DB-BE0C-36AED517E04F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="29685" yWindow="255" windowWidth="11895" windowHeight="15210" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -482,64 +482,64 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1">
-        <v>2000</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2">
-        <v>3100</v>
+        <v>3800</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
       <c r="C3">
-        <v>3800</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>2800</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
       </c>
       <c r="C5">
-        <v>3500</v>
+        <v>2000</v>
       </c>
     </row>
   </sheetData>

--- a/Data/data5.xlsx
+++ b/Data/data5.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCCE185D-B63C-47DB-BE0C-36AED517E04F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D903E4FA-8EA6-4A2B-945A-8AE3FD62CD9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="29685" yWindow="255" windowWidth="11895" windowHeight="15210" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
